--- a/model table with K.xlsx
+++ b/model table with K.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devon\Desktop\Sand Dune Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B7BA31F-6FDD-4F0C-A826-22198FA17AEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0140EAE-4185-4B5F-9E11-D8B1AACC8EB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="3045" windowWidth="11520" windowHeight="7875" firstSheet="1" activeTab="1" xr2:uid="{ED03EBDA-41C0-4D87-9A19-79466A0FFD4B}"/>
+    <workbookView xWindow="2235" yWindow="1905" windowWidth="11520" windowHeight="7875" firstSheet="1" activeTab="1" xr2:uid="{ED03EBDA-41C0-4D87-9A19-79466A0FFD4B}"/>
   </bookViews>
   <sheets>
     <sheet name="original table" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>Model</t>
   </si>
@@ -191,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
@@ -226,9 +241,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80774E38-D980-4ACC-972B-88832E3B4374}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -961,7 +980,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,17 +1016,17 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="C2" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5129.2259999999997</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,13 +1037,13 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.92800000000000005</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="D3">
         <v>0.10199999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>5942.9080000000004</v>
+        <v>5941.5590000000002</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1037,17 +1056,17 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5943.4849999999997</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,22 +1090,22 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5948.4790000000003</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C6" s="3">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5947.5910000000003</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1158,13 +1177,13 @@
         <v>44</v>
       </c>
       <c r="C10" s="1">
-        <v>0.86899999999999999</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D10" s="1">
         <v>0.1</v>
       </c>
       <c r="E10" s="1">
-        <v>3176.4079999999999</v>
+        <v>3175.605</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
@@ -1177,17 +1196,17 @@
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5957.6869999999999</v>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,13 +1217,13 @@
         <v>46</v>
       </c>
       <c r="C12" s="1">
-        <v>0.91700000000000004</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="D12" s="1">
         <v>0.106</v>
       </c>
       <c r="E12" s="1">
-        <v>5941.0510000000004</v>
+        <v>5939.56</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
@@ -1217,17 +1236,17 @@
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="D13">
-        <v>0.106</v>
-      </c>
-      <c r="E13">
-        <v>5943.05</v>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
